--- a/PMBOK_ITTOs_Interactive_Dashboard_2025-09-12.xlsx
+++ b/PMBOK_ITTOs_Interactive_Dashboard_2025-09-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eric.hayes\Documents\PMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEDDA1E-C4B4-42C6-B1D3-FCE65FAB3887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52257F21-6C9C-40F2-8E48-3B763B3B00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11235" yWindow="-16395" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interactive Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,13 @@
     <sheet name="Tools &amp; Techniques" sheetId="5" r:id="rId6"/>
     <sheet name="Outputs" sheetId="6" r:id="rId7"/>
     <sheet name="Diagrams" sheetId="8" r:id="rId8"/>
-    <sheet name="CH4 Agile" sheetId="9" r:id="rId9"/>
-    <sheet name="CH5 IntegrationMGMT" sheetId="11" r:id="rId10"/>
+    <sheet name="CH2 Terms" sheetId="12" r:id="rId9"/>
+    <sheet name="CH3 Processes" sheetId="13" r:id="rId10"/>
+    <sheet name="CH4 Agile" sheetId="9" r:id="rId11"/>
+    <sheet name="CH5 IntegrationMGMT" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
+    <definedName name="Slicer_ITTO_Name">#N/A</definedName>
     <definedName name="Slicer_ITTO_Type">#N/A</definedName>
     <definedName name="Slicer_Process">#N/A</definedName>
   </definedNames>
@@ -35,8 +38,9 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId11"/>
-        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
+        <x14:slicerCache r:id="rId14"/>
+        <x14:slicerCache r:id="rId15"/>
       </x15:slicerCaches>
     </ext>
   </extLst>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5870" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5897" uniqueCount="494">
   <si>
     <t>Process</t>
   </si>
@@ -1714,6 +1718,12 @@
   </si>
   <si>
     <t>On an agile project, the goal is to have as much stakehollder engagement as possiblle, which willl lead to more satisfied stakeholders.</t>
+  </si>
+  <si>
+    <t>Portfolio management</t>
+  </si>
+  <si>
+    <t>Weak matrix</t>
   </si>
 </sst>
 </file>
@@ -2088,114 +2098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2237,6 +2139,114 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2419,6 +2429,84 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>700</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="ITTO Name">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01895C39-1D93-0645-6135-E58213A25EEF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="ITTO Name"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15278100" y="1346200"/>
+              <a:ext cx="2635250" cy="5943600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2442,10 +2530,21 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_ITTO_Name" xr10:uid="{101FA656-58F4-48C3-80A9-0F5559F33C8C}" sourceName="ITTO Name">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="2" column="6"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Process" xr10:uid="{FD884E21-F2E0-4D49-851D-9F08B47F4C98}" cache="Slicer_Process" caption="Process" startItem="14" rowHeight="262466"/>
+  <slicer name="Process" xr10:uid="{FD884E21-F2E0-4D49-851D-9F08B47F4C98}" cache="Slicer_Process" caption="Process" startItem="16" rowHeight="262466"/>
   <slicer name="ITTO Type" xr10:uid="{23E8CF4A-FF86-479E-9D25-C9CB2A9A3DC3}" cache="Slicer_ITTO_Type" caption="ITTO Type" rowHeight="262466"/>
+  <slicer name="ITTO Name" xr10:uid="{5B82B983-3C2A-4799-BC3C-E04BD6090C9A}" cache="Slicer_ITTO_Name" caption="ITTO Name" startItem="44" rowHeight="262466"/>
 </slicers>
 </file>
 
@@ -2800,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G671"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M679" sqref="M679"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F682" sqref="F682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -18265,6 +18364,456 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B1CC85-676C-47E8-89F2-2AD2C28446C5}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="3"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63032946-099A-8A46-AB1F-F9692D34928E}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2795C6F5-9037-7B4A-908E-8E1EB7796907}">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -18459,74 +19008,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="52"/>
+      <c r="G2" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="53" t="s">
         <v>481</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="52"/>
+      <c r="K2" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="20"/>
       <c r="H4" s="21"/>
       <c r="I4" s="20"/>
@@ -18535,12 +19084,12 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="22"/>
       <c r="H5" s="23"/>
       <c r="I5" s="22"/>
@@ -18549,30 +19098,30 @@
       <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="24"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="53"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="20"/>
       <c r="H7" s="21"/>
       <c r="I7" s="20"/>
@@ -18581,12 +19130,12 @@
       <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="22"/>
       <c r="H8" s="23"/>
       <c r="I8" s="22"/>
@@ -18595,28 +19144,28 @@
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="24"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="37"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="42"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="20"/>
       <c r="H10" s="21"/>
       <c r="I10" s="20"/>
@@ -18625,12 +19174,12 @@
       <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="42"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
       <c r="I11" s="22"/>
@@ -18639,28 +19188,28 @@
       <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="24"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="37"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="42"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
       <c r="I13" s="20"/>
@@ -18669,12 +19218,12 @@
       <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="42"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
       <c r="I14" s="22"/>
@@ -18683,28 +19232,28 @@
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="24"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="42"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="20"/>
@@ -18713,12 +19262,12 @@
       <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
       <c r="I17" s="22"/>
@@ -18727,28 +19276,28 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="24"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
       <c r="I19" s="20"/>
@@ -18757,12 +19306,12 @@
       <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="22"/>
       <c r="H20" s="23"/>
       <c r="I20" s="22"/>
@@ -18771,28 +19320,28 @@
       <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="24"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="20"/>
       <c r="H22" s="21"/>
       <c r="I22" s="20"/>
@@ -18801,12 +19350,12 @@
       <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="42"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="22"/>
       <c r="H23" s="23"/>
       <c r="I23" s="22"/>
@@ -18815,28 +19364,28 @@
       <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="24"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
       <c r="I25" s="20"/>
@@ -18845,12 +19394,12 @@
       <c r="L25" s="25"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
       <c r="G26" s="22"/>
       <c r="H26" s="23"/>
       <c r="I26" s="22"/>
@@ -18859,28 +19408,28 @@
       <c r="L26" s="26"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="24"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="37"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="20"/>
       <c r="H28" s="21"/>
       <c r="I28" s="20"/>
@@ -18889,12 +19438,12 @@
       <c r="L28" s="25"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="42"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="22"/>
@@ -18903,30 +19452,30 @@
       <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="24"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
       <c r="I31" s="20"/>
@@ -18935,21 +19484,77 @@
       <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="32"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C27:D29"/>
+    <mergeCell ref="E27:F29"/>
+    <mergeCell ref="G27:H29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="K27:L29"/>
+    <mergeCell ref="C30:D32"/>
+    <mergeCell ref="E30:F32"/>
+    <mergeCell ref="G30:H32"/>
+    <mergeCell ref="I30:J32"/>
+    <mergeCell ref="K30:L32"/>
+    <mergeCell ref="C21:D23"/>
+    <mergeCell ref="E21:F23"/>
+    <mergeCell ref="G21:H23"/>
+    <mergeCell ref="I21:J23"/>
+    <mergeCell ref="K21:L23"/>
+    <mergeCell ref="C24:D26"/>
+    <mergeCell ref="E24:F26"/>
+    <mergeCell ref="G24:H26"/>
+    <mergeCell ref="I24:J26"/>
+    <mergeCell ref="K24:L26"/>
+    <mergeCell ref="C15:D17"/>
+    <mergeCell ref="E15:F17"/>
+    <mergeCell ref="G15:H17"/>
+    <mergeCell ref="I15:J17"/>
+    <mergeCell ref="K15:L17"/>
+    <mergeCell ref="C18:D20"/>
+    <mergeCell ref="E18:F20"/>
+    <mergeCell ref="G18:H20"/>
+    <mergeCell ref="I18:J20"/>
+    <mergeCell ref="K18:L20"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="I9:J11"/>
+    <mergeCell ref="K9:L11"/>
+    <mergeCell ref="C12:D14"/>
+    <mergeCell ref="E12:F14"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="I12:J14"/>
+    <mergeCell ref="K12:L14"/>
+    <mergeCell ref="C9:D11"/>
+    <mergeCell ref="I3:J5"/>
+    <mergeCell ref="K3:L5"/>
+    <mergeCell ref="C6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="I6:J8"/>
+    <mergeCell ref="K6:L8"/>
+    <mergeCell ref="C3:D5"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="G3:H5"/>
     <mergeCell ref="A30:B32"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B5"/>
@@ -18961,62 +19566,6 @@
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="A24:B26"/>
     <mergeCell ref="A27:B29"/>
-    <mergeCell ref="I3:J5"/>
-    <mergeCell ref="K3:L5"/>
-    <mergeCell ref="C6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="I6:J8"/>
-    <mergeCell ref="K6:L8"/>
-    <mergeCell ref="C3:D5"/>
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="G3:H5"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="I9:J11"/>
-    <mergeCell ref="K9:L11"/>
-    <mergeCell ref="C12:D14"/>
-    <mergeCell ref="E12:F14"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="I12:J14"/>
-    <mergeCell ref="K12:L14"/>
-    <mergeCell ref="C9:D11"/>
-    <mergeCell ref="C18:D20"/>
-    <mergeCell ref="E18:F20"/>
-    <mergeCell ref="G18:H20"/>
-    <mergeCell ref="I18:J20"/>
-    <mergeCell ref="K18:L20"/>
-    <mergeCell ref="C15:D17"/>
-    <mergeCell ref="E15:F17"/>
-    <mergeCell ref="G15:H17"/>
-    <mergeCell ref="I15:J17"/>
-    <mergeCell ref="K15:L17"/>
-    <mergeCell ref="C24:D26"/>
-    <mergeCell ref="E24:F26"/>
-    <mergeCell ref="G24:H26"/>
-    <mergeCell ref="I24:J26"/>
-    <mergeCell ref="K24:L26"/>
-    <mergeCell ref="C21:D23"/>
-    <mergeCell ref="E21:F23"/>
-    <mergeCell ref="G21:H23"/>
-    <mergeCell ref="I21:J23"/>
-    <mergeCell ref="K21:L23"/>
-    <mergeCell ref="C30:D32"/>
-    <mergeCell ref="E30:F32"/>
-    <mergeCell ref="G30:H32"/>
-    <mergeCell ref="I30:J32"/>
-    <mergeCell ref="K30:L32"/>
-    <mergeCell ref="C27:D29"/>
-    <mergeCell ref="E27:F29"/>
-    <mergeCell ref="G27:H29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="K27:L29"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23799,7 +24348,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -26660,8 +27211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A13BA-4B29-425E-8E5C-1F3D5D0E8A7D}">
   <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -26857,20 +27408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63032946-099A-8A46-AB1F-F9692D34928E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E201D6-7ACC-415F-9756-E43496827C8E}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.6640625" style="3"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>484</v>
       </c>
@@ -26878,15 +27429,15 @@
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -26894,7 +27445,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -26902,31 +27453,37 @@
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+      <c r="C5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+      <c r="C6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -26934,31 +27491,31 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -26966,162 +27523,129 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>486</v>
-      </c>
-      <c r="C26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>488</v>
-      </c>
-      <c r="C31" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
